--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1831.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1831.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.534348737373576</v>
+        <v>0.3480920195579529</v>
       </c>
       <c r="B1">
-        <v>1.805951274320302</v>
+        <v>2.251837968826294</v>
       </c>
       <c r="C1">
-        <v>1.988497322829219</v>
+        <v>4.798030853271484</v>
       </c>
       <c r="D1">
-        <v>2.180338742948678</v>
+        <v>1.721617937088013</v>
       </c>
       <c r="E1">
-        <v>2.755165489911347</v>
+        <v>0.8628863096237183</v>
       </c>
     </row>
   </sheetData>
